--- a/gsinfosite/data/box/1/2017_1_湖北重点库_word/1-02-217-12.xlsx
+++ b/gsinfosite/data/box/1/2017_1_湖北重点库_word/1-02-217-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>中国人民银行湖北重点库</t>
   </si>
@@ -22,7 +22,7 @@
     <t>金（银）锭类信息档案</t>
   </si>
   <si>
-    <t>填表日期:2017年08月18日</t>
+    <t>填表日期:2017年08月31日</t>
   </si>
   <si>
     <t>装   订   线</t>
@@ -43,7 +43,7 @@
     <t>箱   号</t>
   </si>
   <si>
-    <t>小红</t>
+    <t>小李</t>
   </si>
   <si>
     <t>品   名</t>
@@ -67,31 +67,25 @@
     <t>名   称</t>
   </si>
   <si>
-    <t>金锭</t>
+    <t>的是页面</t>
   </si>
   <si>
     <t>型制类型</t>
   </si>
   <si>
-    <t>金元宝</t>
+    <t>气味</t>
   </si>
   <si>
     <t>时  代</t>
   </si>
   <si>
-    <t>明代</t>
-  </si>
-  <si>
     <t>制造地/制作人</t>
   </si>
   <si>
-    <t>河南</t>
-  </si>
-  <si>
     <t>铭   文</t>
   </si>
   <si>
-    <t>见覅花</t>
+    <t>我去</t>
   </si>
   <si>
     <t>毛 重（g）</t>
@@ -124,19 +118,19 @@
     <t>品   相</t>
   </si>
   <si>
-    <t>中</t>
+    <t>好</t>
   </si>
   <si>
     <t>评价等级</t>
   </si>
   <si>
-    <t>B</t>
+    <t>A</t>
   </si>
   <si>
     <t>备   注</t>
   </si>
   <si>
-    <t>无</t>
+    <t>安慰</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1304,7 @@
       </c>
       <c r="D11" s="25" t="n"/>
       <c r="E11" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="25" t="n"/>
     </row>
@@ -1319,11 +1313,11 @@
         <v>8</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="25" t="n"/>
       <c r="E12" s="24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="25" t="n"/>
     </row>
@@ -1332,11 +1326,11 @@
         <v>9</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="25" t="n"/>
       <c r="E13" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="25" t="n"/>
     </row>
@@ -1345,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="25" t="n"/>
       <c r="E14" s="24" t="n"/>
@@ -1356,13 +1350,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="24" t="n">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>9</v>
@@ -1374,7 +1368,7 @@
       </c>
       <c r="C16" s="25" t="n"/>
       <c r="D16" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="24" t="n"/>
       <c r="F16" s="24" t="s"/>
@@ -1384,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="25" t="n"/>
       <c r="E17" s="24" t="n"/>
@@ -1395,10 +1389,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="24" t="n"/>
       <c r="F18" s="24" t="s"/>
@@ -1409,7 +1403,7 @@
       </c>
       <c r="C19" s="25" t="n"/>
       <c r="D19" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="24" t="n"/>
       <c r="F19" s="25" t="n"/>
@@ -1420,7 +1414,7 @@
       </c>
       <c r="C20" s="25" t="n"/>
       <c r="D20" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="24" t="n"/>
       <c r="F20" s="25" t="n"/>
@@ -1430,11 +1424,11 @@
         <v>17</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="25" t="n"/>
       <c r="E21" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>9</v>
@@ -1445,11 +1439,11 @@
         <v>18</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="25" t="n"/>
       <c r="E22" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" s="25" t="n"/>
     </row>
@@ -1458,11 +1452,11 @@
         <v>19</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D23" s="25" t="n"/>
       <c r="E23" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="25" t="n"/>
     </row>
